--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>-0.3893333333333295</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.6926666666666712</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.01</v>
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -10555,7 +10557,9 @@
       <c r="C116" t="n">
         <v>0.2326666666666632</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.4339999999999993</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10566,7 +10570,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.13</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -15681,7 +15685,9 @@
       <c r="C116" t="n">
         <v>0.7100000000000009</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.08999999999999808</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15692,7 +15698,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -20807,7 +20813,9 @@
       <c r="C116" t="n">
         <v>1.080333333333332</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.2703333333333369</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20818,7 +20826,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -25839,7 +25847,9 @@
       <c r="C116" t="n">
         <v>1.963333333333328</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.1199999999999957</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -25850,7 +25860,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
@@ -30965,7 +30975,9 @@
       <c r="C116" t="n">
         <v>1.603333333333332</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.2099999999999973</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -30976,7 +30988,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -36091,7 +36103,9 @@
       <c r="C116" t="n">
         <v>2.413000000000002</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.9263333333333339</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36102,7 +36116,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
@@ -41217,7 +41231,9 @@
       <c r="C116" t="n">
         <v>1.087619047619047</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.06999999999999876</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41228,7 +41244,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -46343,7 +46359,9 @@
       <c r="C116" t="n">
         <v>1.09</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46354,7 +46372,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>-0.6926666666666712</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.307333333333336</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.22</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -10560,7 +10562,9 @@
       <c r="D116" t="n">
         <v>-0.4339999999999993</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.266</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10570,7 +10574,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.06</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -15688,7 +15692,9 @@
       <c r="D116" t="n">
         <v>0.08999999999999808</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.6600000000000019</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15698,7 +15704,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -20816,7 +20822,9 @@
       <c r="D116" t="n">
         <v>0.2703333333333369</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.007</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20826,7 +20834,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -25850,7 +25858,9 @@
       <c r="D116" t="n">
         <v>0.1199999999999957</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.013333333333334</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25860,7 +25870,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>
@@ -30978,7 +30988,9 @@
       <c r="D116" t="n">
         <v>0.2099999999999973</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.246666666666663</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -30988,7 +31000,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -36106,7 +36118,9 @@
       <c r="D116" t="n">
         <v>0.9263333333333339</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.113</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36116,7 +36130,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
@@ -41234,7 +41248,9 @@
       <c r="D116" t="n">
         <v>0.06999999999999876</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.087619047619048</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41244,7 +41260,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -46362,7 +46378,9 @@
       <c r="D116" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.09</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46372,7 +46390,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5515,8 +5515,12 @@
       <c r="E116" t="n">
         <v>1.307333333333336</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.460666666666667</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.3339999999999996</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -10565,8 +10569,12 @@
       <c r="E116" t="n">
         <v>1.266</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.479333333333333</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.296000000000001</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -10574,7 +10582,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.27</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15695,8 +15703,12 @@
       <c r="E116" t="n">
         <v>0.6600000000000019</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.856666666666669</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.126666666666665</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -15704,7 +15716,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.52</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -20825,8 +20837,12 @@
       <c r="E116" t="n">
         <v>1.007</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.040333333333336</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.620666666666665</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -20834,7 +20850,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -25861,8 +25877,12 @@
       <c r="E116" t="n">
         <v>1.013333333333334</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.950000000000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.333333333333332</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -25870,7 +25890,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
@@ -30991,8 +31011,12 @@
       <c r="E116" t="n">
         <v>1.246666666666663</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.236666666666663</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.076666666666667</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -31000,7 +31024,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -36121,8 +36145,12 @@
       <c r="E116" t="n">
         <v>1.113</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.076333333333331</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.746333333333333</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -36130,7 +36158,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
@@ -41251,8 +41279,12 @@
       <c r="E116" t="n">
         <v>1.087619047619048</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.014285714285714</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.361952380952381</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -41260,7 +41292,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -46381,8 +46413,12 @@
       <c r="E116" t="n">
         <v>1.09</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.36</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -46390,7 +46426,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5521,14 +5521,16 @@
       <c r="G116" t="n">
         <v>0.3339999999999996</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.047333333333333</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -10575,7 +10577,9 @@
       <c r="G116" t="n">
         <v>1.296000000000001</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.7760000000000034</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -15709,14 +15713,16 @@
       <c r="G116" t="n">
         <v>1.126666666666665</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.4033333333333324</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -20843,14 +20849,16 @@
       <c r="G116" t="n">
         <v>1.620666666666665</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.450666666666667</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -25881,16 +25889,18 @@
         <v>1.950000000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>1.333333333333332</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.233333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.040000000000002</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -31017,14 +31027,16 @@
       <c r="G116" t="n">
         <v>2.076666666666667</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.103333333333334</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -36151,14 +36163,16 @@
       <c r="G116" t="n">
         <v>1.746333333333333</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.802999999999999</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>
@@ -41283,16 +41297,18 @@
         <v>2.014285714285714</v>
       </c>
       <c r="G116" t="n">
-        <v>1.361952380952381</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.347666666666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.089095238095239</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
@@ -46417,16 +46433,18 @@
         <v>2.01</v>
       </c>
       <c r="G116" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.09</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>1.047333333333333</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.8389999999999986</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -10580,13 +10582,15 @@
       <c r="H116" t="n">
         <v>0.7760000000000034</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.8006666666666691</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -15716,13 +15720,15 @@
       <c r="H116" t="n">
         <v>0.4033333333333324</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.8833333333333311</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -20852,13 +20858,15 @@
       <c r="H116" t="n">
         <v>1.450666666666667</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.7260000000000009</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -25894,13 +25902,15 @@
       <c r="H116" t="n">
         <v>1.040000000000002</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.7266666666666675</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
@@ -31030,13 +31040,15 @@
       <c r="H116" t="n">
         <v>1.103333333333334</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.21</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -36166,13 +36178,15 @@
       <c r="H116" t="n">
         <v>1.802999999999999</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.3063333333333329</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
@@ -41302,13 +41316,15 @@
       <c r="H116" t="n">
         <v>1.089095238095239</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.5541904761904763</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -46438,13 +46454,15 @@
       <c r="H116" t="n">
         <v>1.09</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.55</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>-0.8389999999999986</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.054333333333327</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -10585,12 +10587,14 @@
       <c r="I116" t="n">
         <v>-0.8006666666666691</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.772666666666666</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -15723,12 +15727,14 @@
       <c r="I116" t="n">
         <v>-0.8833333333333311</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.028666666666668</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -20861,12 +20867,14 @@
       <c r="I116" t="n">
         <v>-0.7260000000000009</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.237333333333332</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -25905,12 +25913,14 @@
       <c r="I116" t="n">
         <v>-0.7266666666666675</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.9199999999999999</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
@@ -31043,12 +31053,14 @@
       <c r="I116" t="n">
         <v>-0.21</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.576666666666666</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -36181,12 +36193,14 @@
       <c r="I116" t="n">
         <v>0.3063333333333329</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.373999999999999</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>
@@ -41319,12 +41333,14 @@
       <c r="I116" t="n">
         <v>-0.5541904761904763</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.280523809523808</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -46457,12 +46473,14 @@
       <c r="I116" t="n">
         <v>-0.55</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.28</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>1.054333333333327</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.7343333333333302</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -10590,11 +10592,13 @@
       <c r="J116" t="n">
         <v>1.772666666666666</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.3026666666666653</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15730,11 +15734,13 @@
       <c r="J116" t="n">
         <v>1.028666666666668</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.1853333333333307</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -20870,11 +20876,13 @@
       <c r="J116" t="n">
         <v>1.237333333333332</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.2906666666666702</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -25916,11 +25924,13 @@
       <c r="J116" t="n">
         <v>0.9199999999999999</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.2999999999999989</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
@@ -31056,11 +31066,13 @@
       <c r="J116" t="n">
         <v>1.576666666666666</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.5000000000000018</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -36196,11 +36208,13 @@
       <c r="J116" t="n">
         <v>1.373999999999999</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.9506666666666685</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -41336,11 +41350,13 @@
       <c r="J116" t="n">
         <v>1.280523809523808</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.3805238095238097</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -46476,11 +46492,13 @@
       <c r="J116" t="n">
         <v>1.28</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.38</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>0.7343333333333302</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4943333333333335</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -10595,10 +10597,12 @@
       <c r="K116" t="n">
         <v>0.3026666666666653</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.8119999999999958</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -15737,10 +15741,12 @@
       <c r="K116" t="n">
         <v>0.1853333333333307</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.3186666666666618</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20879,10 +20885,12 @@
       <c r="K116" t="n">
         <v>0.2906666666666702</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4473333333333329</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -25927,10 +25935,12 @@
       <c r="K116" t="n">
         <v>-0.2999999999999989</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.6233333333333295</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -31069,10 +31079,12 @@
       <c r="K116" t="n">
         <v>0.5000000000000018</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.2166666666666686</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -36211,10 +36223,12 @@
       <c r="K116" t="n">
         <v>0.9506666666666685</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>-0.006000000000000227</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -41353,10 +41367,12 @@
       <c r="K116" t="n">
         <v>0.3805238095238097</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4151904761904746</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -46495,10 +46511,12 @@
       <c r="K116" t="n">
         <v>0.38</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.42</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,10 +5536,30 @@
       <c r="L116" t="n">
         <v>0.4943333333333335</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.087666666666667</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.45</v>
-      </c>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,7 +5572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10600,10 +10620,30 @@
       <c r="L116" t="n">
         <v>0.8119999999999958</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.611999999999998</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.7</v>
-      </c>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10616,7 +10656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15744,10 +15784,30 @@
       <c r="L116" t="n">
         <v>0.3186666666666618</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.4286666666666683</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15760,7 +15820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20888,10 +20948,30 @@
       <c r="L116" t="n">
         <v>0.4473333333333329</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.513000000000005</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.9</v>
-      </c>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20904,7 +20984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25938,10 +26018,30 @@
       <c r="L116" t="n">
         <v>0.6233333333333295</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.8566666666666656</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.02</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25954,7 +26054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31082,10 +31182,30 @@
       <c r="L116" t="n">
         <v>0.2166666666666686</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.236666666666666</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.05</v>
-      </c>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31098,7 +31218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36226,10 +36346,30 @@
       <c r="L116" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.7973333333333308</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.3</v>
-      </c>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36242,7 +36382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41370,10 +41510,30 @@
       <c r="L116" t="n">
         <v>0.4151904761904746</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.076</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.85</v>
-      </c>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41386,7 +41546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46514,10 +46674,30 @@
       <c r="L116" t="n">
         <v>0.42</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.08</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.85</v>
-      </c>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.607333333333337</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10631,7 +10635,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.632666666666669</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10643,7 +10649,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15795,7 +15803,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.536666666666672</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15807,7 +15817,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20959,7 +20971,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.270333333333337</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -20971,7 +20985,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26029,7 +26045,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.7500000000000018</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26041,7 +26059,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31193,7 +31213,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.443333333333332</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31205,7 +31227,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36357,7 +36381,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.8729999999999976</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36369,7 +36395,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41521,7 +41549,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.301904761904764</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41533,7 +41563,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46685,7 +46717,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.3</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -46697,7 +46731,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>1.607333333333337</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.01066666666666904</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.61</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10638,7 +10640,9 @@
       <c r="B117" t="n">
         <v>1.632666666666669</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.03266666666666396</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10650,7 +10654,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.63</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -15806,7 +15810,9 @@
       <c r="B117" t="n">
         <v>1.536666666666672</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.1099999999999994</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15818,7 +15824,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.54</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -20974,7 +20980,9 @@
       <c r="B117" t="n">
         <v>1.270333333333337</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.1196666666666673</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -20986,7 +20994,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.27</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -26048,7 +26056,9 @@
       <c r="B117" t="n">
         <v>0.7500000000000018</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-1.236666666666672</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26060,7 +26070,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.75</v>
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -31216,7 +31226,9 @@
       <c r="B117" t="n">
         <v>1.443333333333332</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.1966666666666654</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31228,7 +31240,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.44</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -36384,7 +36396,9 @@
       <c r="B117" t="n">
         <v>0.8729999999999976</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.6130000000000013</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36396,7 +36410,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -41552,7 +41566,9 @@
       <c r="B117" t="n">
         <v>1.301904761904764</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.1123809523809529</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41564,7 +41580,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.3</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -46720,7 +46736,9 @@
       <c r="B117" t="n">
         <v>1.3</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.11</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -46732,7 +46750,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>0.01066666666666904</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.09266666666667</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -10643,7 +10645,9 @@
       <c r="C117" t="n">
         <v>0.03266666666666396</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.9339999999999993</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10654,7 +10658,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.83</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -15813,7 +15817,9 @@
       <c r="C117" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.7100000000000026</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15824,7 +15830,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -20983,7 +20989,9 @@
       <c r="C117" t="n">
         <v>-0.1196666666666673</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.7296666666666631</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -20994,7 +21002,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.58</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -26059,7 +26067,9 @@
       <c r="C117" t="n">
         <v>-1.236666666666672</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.280000000000005</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26070,7 +26080,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.24</v>
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -31229,7 +31239,9 @@
       <c r="C117" t="n">
         <v>-0.1966666666666654</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.290000000000003</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31240,7 +31252,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.62</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -36399,7 +36411,9 @@
       <c r="C117" t="n">
         <v>0.6130000000000013</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.8736666666666668</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36410,7 +36424,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.74</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -41569,7 +41583,9 @@
       <c r="C117" t="n">
         <v>-0.1123809523809529</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.9871428571428584</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41580,7 +41596,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.59</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -46739,7 +46755,9 @@
       <c r="C117" t="n">
         <v>-0.11</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.99</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -46750,7 +46768,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>-1.09266666666667</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.4073333333333373</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -10648,7 +10650,9 @@
       <c r="D117" t="n">
         <v>-0.9339999999999993</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.3659999999999997</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10658,7 +10662,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -15820,7 +15824,9 @@
       <c r="D117" t="n">
         <v>-0.7100000000000026</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.3600000000000012</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15830,7 +15836,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -20992,7 +20998,9 @@
       <c r="D117" t="n">
         <v>-0.7296666666666631</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.6070000000000011</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21002,7 +21010,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -26070,7 +26078,9 @@
       <c r="D117" t="n">
         <v>-1.280000000000005</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.2133333333333347</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26080,7 +26090,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.59</v>
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -31158,7 +31168,7 @@
         <v>0.9466666666666619</v>
       </c>
       <c r="F115" t="n">
-        <v>1.336666666666662</v>
+        <v>1.236666666666663</v>
       </c>
       <c r="G115" t="n">
         <v>1.276666666666666</v>
@@ -31182,7 +31192,7 @@
         <v>0.9366666666666656</v>
       </c>
       <c r="N115" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="116">
@@ -31242,7 +31252,9 @@
       <c r="D117" t="n">
         <v>-1.290000000000003</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.7466666666666626</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31252,7 +31264,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.01</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -36414,7 +36426,9 @@
       <c r="D117" t="n">
         <v>-0.8736666666666668</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.4129999999999985</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36424,7 +36438,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -41502,7 +41516,7 @@
         <v>1.159047619047619</v>
       </c>
       <c r="F115" t="n">
-        <v>1.442857142857143</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="G115" t="n">
         <v>1.16195238095238</v>
@@ -41526,7 +41540,7 @@
         <v>1.161714285714286</v>
       </c>
       <c r="N115" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="116">
@@ -41586,7 +41600,9 @@
       <c r="D117" t="n">
         <v>-0.9871428571428584</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.444761904761905</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41596,7 +41612,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -46674,7 +46690,7 @@
         <v>1.16</v>
       </c>
       <c r="F115" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G115" t="n">
         <v>1.16</v>
@@ -46758,7 +46774,9 @@
       <c r="D117" t="n">
         <v>-0.99</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.44</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -46768,7 +46786,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>0.4073333333333373</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.139333333333333</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -10653,7 +10655,9 @@
       <c r="E117" t="n">
         <v>0.3659999999999997</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.320666666666668</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10662,7 +10666,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.27</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -15827,7 +15831,9 @@
       <c r="E117" t="n">
         <v>0.3600000000000012</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.443333333333332</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15836,7 +15842,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -21001,7 +21007,9 @@
       <c r="E117" t="n">
         <v>0.6070000000000011</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.259666666666662</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21010,7 +21018,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.26</v>
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -26081,7 +26089,9 @@
       <c r="E117" t="n">
         <v>0.2133333333333347</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.8499999999999996</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26090,7 +26100,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.39</v>
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -31255,7 +31265,9 @@
       <c r="E117" t="n">
         <v>0.7466666666666626</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-2.263333333333337</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31264,7 +31276,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.18</v>
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -36429,7 +36441,9 @@
       <c r="E117" t="n">
         <v>0.4129999999999985</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.8236666666666679</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36438,7 +36452,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -41603,7 +41617,9 @@
       <c r="E117" t="n">
         <v>0.444761904761905</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41612,7 +41628,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.16</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -46777,7 +46793,9 @@
       <c r="E117" t="n">
         <v>0.44</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -46786,7 +46804,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.16</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>-1.139333333333333</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.334</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.04</v>
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -10658,7 +10660,9 @@
       <c r="F117" t="n">
         <v>-1.320666666666668</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.8960000000000008</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10666,7 +10670,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -15834,7 +15838,9 @@
       <c r="F117" t="n">
         <v>-1.443333333333332</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.8266666666666644</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15842,7 +15848,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.03</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -21010,7 +21016,9 @@
       <c r="F117" t="n">
         <v>-1.259666666666662</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.220666666666665</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21018,7 +21026,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.05</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -26092,7 +26100,9 @@
       <c r="F117" t="n">
         <v>-0.8499999999999996</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.233333333333333</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26100,7 +26110,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.48</v>
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -31268,7 +31278,9 @@
       <c r="F117" t="n">
         <v>-2.263333333333337</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.8766666666666669</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31276,7 +31288,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.31</v>
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -36444,7 +36456,9 @@
       <c r="F117" t="n">
         <v>-0.8236666666666679</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.546333333333334</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36452,7 +36466,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -41620,7 +41634,9 @@
       <c r="F117" t="n">
         <v>-1.3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.133380952380952</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41628,7 +41644,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -46796,7 +46812,9 @@
       <c r="F117" t="n">
         <v>-1.3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.13</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -46804,7 +46822,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>1.334</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.4473333333333329</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -10663,14 +10665,16 @@
       <c r="G117" t="n">
         <v>0.8960000000000008</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.7760000000000034</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -15841,14 +15845,16 @@
       <c r="G117" t="n">
         <v>0.8266666666666644</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.7033333333333331</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -21019,14 +21025,16 @@
       <c r="G117" t="n">
         <v>1.220666666666665</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.050666666666666</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -26103,14 +26111,16 @@
       <c r="G117" t="n">
         <v>1.233333333333333</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.140000000000001</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.2</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -31281,14 +31291,16 @@
       <c r="G117" t="n">
         <v>0.8766666666666669</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8033333333333346</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.11</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -36459,14 +36471,16 @@
       <c r="G117" t="n">
         <v>1.546333333333334</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.702999999999999</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -41637,14 +41651,16 @@
       <c r="G117" t="n">
         <v>1.133380952380952</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.9462380952380959</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -46815,14 +46831,16 @@
       <c r="G117" t="n">
         <v>1.13</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.95</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_unrounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_rounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMean_unrounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMean_rounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>0.4473333333333329</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.6610000000000014</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -10668,13 +10669,15 @@
       <c r="H117" t="n">
         <v>0.7760000000000034</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.099333333333332</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -15848,13 +15851,15 @@
       <c r="H117" t="n">
         <v>0.7033333333333331</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.8166666666666682</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -21028,13 +21033,15 @@
       <c r="H117" t="n">
         <v>1.050666666666666</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.5739999999999998</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -26114,13 +26121,15 @@
       <c r="H117" t="n">
         <v>1.140000000000001</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.8733333333333331</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -31294,13 +31303,15 @@
       <c r="H117" t="n">
         <v>0.8033333333333346</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.8899999999999997</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -36474,13 +36485,15 @@
       <c r="H117" t="n">
         <v>1.702999999999999</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.006333333333334</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -41654,13 +41667,15 @@
       <c r="H117" t="n">
         <v>0.9462380952380959</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.845809523809524</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -46834,13 +46849,15 @@
       <c r="H117" t="n">
         <v>0.95</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>0.6610000000000014</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.8543333333333276</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -10672,12 +10674,14 @@
       <c r="I117" t="n">
         <v>1.099333333333332</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5726666666666649</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -15854,12 +15858,14 @@
       <c r="I117" t="n">
         <v>0.8166666666666682</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.6286666666666676</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -21036,12 +21042,14 @@
       <c r="I117" t="n">
         <v>0.5739999999999998</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4373333333333314</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -26124,12 +26132,14 @@
       <c r="I117" t="n">
         <v>0.8733333333333331</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.01999999999999957</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -31306,12 +31316,14 @@
       <c r="I117" t="n">
         <v>0.8899999999999997</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.9766666666666648</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -36488,12 +36500,14 @@
       <c r="I117" t="n">
         <v>1.006333333333334</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.073999999999998</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -41670,12 +41684,14 @@
       <c r="I117" t="n">
         <v>0.845809523809524</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.6519523809523792</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -46852,12 +46868,14 @@
       <c r="I117" t="n">
         <v>0.85</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.65</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>0.8543333333333276</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.8343333333333298</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -10677,11 +10679,13 @@
       <c r="J117" t="n">
         <v>0.5726666666666649</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.902666666666665</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -15861,11 +15865,13 @@
       <c r="J117" t="n">
         <v>0.6286666666666676</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.9853333333333296</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -21045,11 +21051,13 @@
       <c r="J117" t="n">
         <v>0.4373333333333314</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.2906666666666702</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -26135,11 +26143,13 @@
       <c r="J117" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.8000000000000007</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -31319,11 +31329,13 @@
       <c r="J117" t="n">
         <v>0.9766666666666648</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7000000000000028</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -36503,11 +36515,13 @@
       <c r="J117" t="n">
         <v>1.073999999999998</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7506666666666675</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -41687,11 +41701,13 @@
       <c r="J117" t="n">
         <v>0.6519523809523792</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7519523809523808</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -46871,11 +46887,13 @@
       <c r="J117" t="n">
         <v>0.65</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.75</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_unrounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,10 +5576,36 @@
       <c r="K117" t="n">
         <v>0.8343333333333334</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.8943333333333356</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.287666666666667</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.09266666666666623</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10682,10 +10708,36 @@
       <c r="K117" t="n">
         <v>0.9026666666666667</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.311999999999998</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.712000000000003</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2.167333333333334</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-2.17</v>
       </c>
     </row>
   </sheetData>
@@ -10699,7 +10751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15868,10 +15920,36 @@
       <c r="K117" t="n">
         <v>0.9853333333333314</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.418666666666667</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.02866666666667</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.263333333333334</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.26</v>
       </c>
     </row>
   </sheetData>
@@ -15885,7 +15963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21054,10 +21132,36 @@
       <c r="K117" t="n">
         <v>0.2906666666666649</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.047333333333333</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.913</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.7296666666666631</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -21071,7 +21175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26146,11 +26250,31 @@
       <c r="K117" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.5233333333333299</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
-      </c>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26163,7 +26287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31332,10 +31456,36 @@
       <c r="K117" t="n">
         <v>0.7000000000000011</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.9166666666666661</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.336666666666668</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.856666666666666</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.86</v>
       </c>
     </row>
   </sheetData>
@@ -31349,7 +31499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36518,10 +36668,36 @@
       <c r="K117" t="n">
         <v>0.7506666666666657</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.5939999999999994</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.497333333333332</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.6270000000000042</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -36535,7 +36711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41704,10 +41880,36 @@
       <c r="K117" t="n">
         <v>0.7519523809523803</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.9580476190476183</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.462555555555556</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.122777777777778</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.12</v>
       </c>
     </row>
   </sheetData>
@@ -41721,7 +41923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46890,10 +47092,36 @@
       <c r="K117" t="n">
         <v>0.75</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.46</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.12</v>
       </c>
     </row>
   </sheetData>
